--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="12600"/>
+    <workbookView windowWidth="23370" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +225,15 @@
   </si>
   <si>
     <t>Id+Level</t>
+  </si>
+  <si>
+    <t>BuffConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffConfig</t>
+  </si>
+  <si>
+    <t>BuffConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1510,6 +1519,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="17" customFormat="1" spans="2:5">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23370" windowHeight="13770"/>
+    <workbookView windowWidth="22080" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>BuffConfig.xlsx</t>
+  </si>
+  <si>
+    <t>ActionEventConfigCategory</t>
+  </si>
+  <si>
+    <t>ActionEventConfig</t>
+  </si>
+  <si>
+    <t>ActionEventConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1533,6 +1542,20 @@
         <v>68</v>
       </c>
     </row>
+    <row r="18" customFormat="1" spans="2:5">
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
